--- a/docs/Data/quiz/e4v3/honda_vehicles.xlsx
+++ b/docs/Data/quiz/e4v3/honda_vehicles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d14353b491619df/Desktop/Desktop/BYU-I/Courses/Math 221B/Exams/Exam Data_new/Version 3 Exams/E4_Version 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e4v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F18A62D6-93F0-4FD0-A876-41C4772B7809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6095C733-0692-42FB-90D1-408242E99877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1196EA6D-BD89-49E4-AAC3-999C83996188}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1196EA6D-BD89-49E4-AAC3-999C83996188}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,23 +45,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,17 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,263 +390,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEB2D2-6EB3-438E-9880-044FBB12FE69}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.7265625" style="3"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>3278</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2640</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4457</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2245</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2035</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3907</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2288</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3436</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>4800</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1990</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>3988</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2506</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>4098</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2295</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2790</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>3500</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>4500</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>4135</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1955</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2234</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2075</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>33.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2350</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>32.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>4220</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>4464</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>3230</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>28.1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>3003</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>24.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2300</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>4657</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>4215</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>17.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2587</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>21</v>
       </c>
     </row>

--- a/docs/Data/quiz/e4v3/honda_vehicles.xlsx
+++ b/docs/Data/quiz/e4v3/honda_vehicles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e4v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\Data\quiz\e4v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6095C733-0692-42FB-90D1-408242E99877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE3AB8F-D39F-4CF7-9EC8-F1D153DB4AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1196EA6D-BD89-49E4-AAC3-999C83996188}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1196EA6D-BD89-49E4-AAC3-999C83996188}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,12 +393,12 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3278</v>
       </c>
@@ -414,7 +414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2640</v>
       </c>
@@ -422,7 +422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4457</v>
       </c>
@@ -430,7 +430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2245</v>
       </c>
@@ -438,7 +438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2035</v>
       </c>
@@ -446,7 +446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3907</v>
       </c>
@@ -454,7 +454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2288</v>
       </c>
@@ -462,7 +462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3436</v>
       </c>
@@ -470,7 +470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4800</v>
       </c>
@@ -478,7 +478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1990</v>
       </c>
@@ -486,7 +486,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3988</v>
       </c>
@@ -494,7 +494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2506</v>
       </c>
@@ -502,7 +502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4098</v>
       </c>
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2295</v>
       </c>
@@ -518,7 +518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2790</v>
       </c>
@@ -526,7 +526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3500</v>
       </c>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4500</v>
       </c>
@@ -542,7 +542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4135</v>
       </c>
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1955</v>
       </c>
@@ -558,7 +558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2234</v>
       </c>
@@ -566,7 +566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2075</v>
       </c>
@@ -574,7 +574,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2350</v>
       </c>
@@ -582,7 +582,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4220</v>
       </c>
@@ -590,7 +590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4464</v>
       </c>
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3230</v>
       </c>
@@ -606,7 +606,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3003</v>
       </c>
@@ -614,7 +614,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2300</v>
       </c>
@@ -622,7 +622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4657</v>
       </c>
@@ -630,7 +630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4215</v>
       </c>
@@ -638,7 +638,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2587</v>
       </c>
